--- a/安宠居2.xlsx
+++ b/安宠居2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25810\Desktop\project-management-pet-home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李小刚\Desktop\IT-Project-Management\project-management-pet-home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD2BA2B-55C4-4161-B704-02AE24FAFFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B6DD69-7850-4564-AF8D-0D0619DCE762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,21 +1017,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.109375" customWidth="1"/>
-    <col min="2" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" customWidth="1"/>
+    <col min="2" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>183</v>
       </c>
@@ -1104,10 +1104,10 @@
       </c>
       <c r="L3">
         <f>SUM(L4:L69)</f>
-        <v>520800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1687920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1128,26 +1128,26 @@
         <v>N1-1      进度协调会</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G2:G33" si="0">D4-C4+1</f>
+        <f t="shared" ref="G4:G33" si="0">D4-C4+1</f>
         <v>204</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H3:H66" si="1">G4*8</f>
+        <f t="shared" ref="H4:H65" si="1">G4*8</f>
         <v>1632</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L4">
         <f>H4*I4</f>
-        <v>163200</v>
+        <v>816000</v>
       </c>
       <c r="M4">
         <f>L4/L$3</f>
-        <v>0.31336405529953915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.48343523389734111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1169,14 +1169,14 @@
       </c>
       <c r="L5">
         <f>SUM(K6:K17)</f>
-        <v>140000</v>
+        <v>661600</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M68" si="3">L5/L$3</f>
-        <v>0.26881720430107525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M5:M64" si="3">L5/L$3</f>
+        <v>0.39196170434617755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -1205,18 +1205,18 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K5:K68" si="4">H6*I6</f>
-        <v>2400</v>
+        <f t="shared" ref="K6:K65" si="4">H6*I6</f>
+        <v>12000</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M17" si="5">K6/L$3</f>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.1093416749608987E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1245,18 +1245,18 @@
         <v>24</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>12000</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.1093416749608987E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1282,10 +1282,10 @@
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>1.8433179723502304E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.6874733399687192E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1322,10 +1322,10 @@
       </c>
       <c r="M9">
         <f t="shared" ref="M9:M13" si="6">J9/L$3</f>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1362,10 +1362,10 @@
       </c>
       <c r="M10">
         <f t="shared" si="6"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1402,10 +1402,10 @@
       </c>
       <c r="M11">
         <f t="shared" si="6"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1442,10 +1442,10 @@
       </c>
       <c r="M12">
         <f t="shared" si="6"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921798E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1482,10 +1482,10 @@
       </c>
       <c r="M13">
         <f t="shared" si="6"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921798E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -1514,18 +1514,18 @@
         <v>40</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>7.6804915514592934E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1848902791601498E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1554,18 +1554,18 @@
         <v>24</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>12000</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.1093416749608987E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1594,18 +1594,18 @@
         <v>1144</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>114400</v>
+        <v>572000</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>0.2196620583717358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33887861983980283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1634,18 +1634,18 @@
         <v>48</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>4800</v>
+        <v>24000</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921797E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -1667,14 +1667,14 @@
       </c>
       <c r="L18">
         <f>SUM(K19:K27)</f>
-        <v>11200</v>
+        <v>20000</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>2.1505376344086023E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1848902791601498E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1696,14 +1696,14 @@
       </c>
       <c r="K19">
         <f>SUM(J20:J22)</f>
-        <v>4800</v>
+        <v>12800</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19:M27" si="8">K19/L$3</f>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.5832977866249589E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -1732,18 +1732,18 @@
         <v>16</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J5:J68" si="9">H20*I20</f>
-        <v>1600</v>
+        <f t="shared" ref="J20:J68" si="9">H20*I20</f>
+        <v>3200</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20:M22" si="10">J20/L$3</f>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1772,18 +1772,18 @@
         <v>16</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J21">
         <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="M21">
         <f t="shared" si="10"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.7395611166405989E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
@@ -1820,10 +1820,10 @@
       </c>
       <c r="M22">
         <f t="shared" si="10"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
@@ -1849,10 +1849,10 @@
       </c>
       <c r="M23">
         <f t="shared" si="8"/>
-        <v>7.6804915514592934E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3697805583202994E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>63</v>
       </c>
@@ -1889,10 +1889,10 @@
       </c>
       <c r="M24">
         <f t="shared" ref="M24:M25" si="11">J24/L$3</f>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>65</v>
       </c>
@@ -1929,10 +1929,10 @@
       </c>
       <c r="M25">
         <f t="shared" si="11"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921798E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>68</v>
       </c>
@@ -1969,10 +1969,10 @@
       </c>
       <c r="M26">
         <f t="shared" si="8"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
@@ -2001,18 +2001,18 @@
         <v>8</v>
       </c>
       <c r="I27">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M27">
         <f t="shared" si="8"/>
-        <v>1.5360983102918587E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>74</v>
       </c>
@@ -2034,14 +2034,14 @@
       </c>
       <c r="L28">
         <f>SUM(K29:K39)</f>
-        <v>26400</v>
+        <v>38400</v>
       </c>
       <c r="M28">
         <f t="shared" si="3"/>
-        <v>5.0691244239631339E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.2749893359874877E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
@@ -2063,14 +2063,14 @@
       </c>
       <c r="K29">
         <f>SUM(J30:J33)</f>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M39" si="12">K29/L$3</f>
-        <v>2.3041474654377881E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M29:M34" si="12">K29/L$3</f>
+        <v>1.4218683349921797E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>80</v>
       </c>
@@ -2099,18 +2099,18 @@
         <v>16</v>
       </c>
       <c r="I30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="M30">
         <f t="shared" ref="M30:M33" si="13">J30/L$3</f>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>82</v>
       </c>
@@ -2139,18 +2139,18 @@
         <v>16</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="M31">
         <f t="shared" si="13"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>84</v>
       </c>
@@ -2179,18 +2179,18 @@
         <v>40</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J32">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M32">
         <f t="shared" si="13"/>
-        <v>7.6804915514592934E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.7395611166405989E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
@@ -2219,18 +2219,18 @@
         <v>48</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33">
         <f t="shared" si="9"/>
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="M33">
         <f t="shared" si="13"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.6874733399687192E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>89</v>
       </c>
@@ -2256,10 +2256,10 @@
       </c>
       <c r="M34">
         <f t="shared" si="12"/>
-        <v>2.7649769585253458E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.5312100099530792E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>92</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>N1-4.2.1            模块说明</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G34:G69" si="14">D35-C35+1</f>
+        <f t="shared" ref="G35:G69" si="14">D35-C35+1</f>
         <v>4</v>
       </c>
       <c r="H35">
@@ -2296,10 +2296,10 @@
       </c>
       <c r="M35">
         <f t="shared" ref="M35:M39" si="15">J35/L$3</f>
-        <v>6.1443932411674347E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>94</v>
       </c>
@@ -2336,10 +2336,10 @@
       </c>
       <c r="M36">
         <f t="shared" si="15"/>
-        <v>6.1443932411674347E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>97</v>
       </c>
@@ -2376,10 +2376,10 @@
       </c>
       <c r="M37">
         <f t="shared" si="15"/>
-        <v>6.1443932411674347E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>100</v>
       </c>
@@ -2416,10 +2416,10 @@
       </c>
       <c r="M38">
         <f t="shared" si="15"/>
-        <v>6.1443932411674347E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>102</v>
       </c>
@@ -2456,10 +2456,10 @@
       </c>
       <c r="M39">
         <f t="shared" si="15"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.4791222332811986E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -2481,14 +2481,14 @@
       </c>
       <c r="L40">
         <f>SUM(K41:K52)</f>
-        <v>96000</v>
+        <v>89520</v>
       </c>
       <c r="M40">
         <f t="shared" si="3"/>
-        <v>0.18433179723502305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.3035688895208301E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -2510,14 +2510,14 @@
       </c>
       <c r="K41">
         <f>SUM(J42:J43)</f>
-        <v>15200</v>
+        <v>13760</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:M52" si="16">K41/L$3</f>
-        <v>2.9185867895545316E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M41:M48" si="16">K41/L$3</f>
+        <v>8.1520451206218304E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>110</v>
       </c>
@@ -2554,10 +2554,10 @@
       </c>
       <c r="M42">
         <f t="shared" ref="M42:M43" si="17">J42/L$3</f>
-        <v>1.9969278033794162E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.1614294516327784E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
@@ -2586,18 +2586,18 @@
         <v>48</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>4800</v>
+        <v>3360</v>
       </c>
       <c r="M43">
         <f t="shared" si="17"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9906156689890515E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
@@ -2619,14 +2619,14 @@
       </c>
       <c r="K44">
         <f>SUM(J45:J46)</f>
-        <v>15200</v>
+        <v>10640</v>
       </c>
       <c r="M44">
         <f t="shared" si="16"/>
-        <v>2.9185867895545316E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.3036162851319967E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>116</v>
       </c>
@@ -2655,18 +2655,18 @@
         <v>104</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
-        <v>10400</v>
+        <v>7280</v>
       </c>
       <c r="M45">
         <f t="shared" ref="M45:M46" si="18">J45/L$3</f>
-        <v>1.9969278033794162E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.3130006161429448E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>112</v>
       </c>
@@ -2695,18 +2695,18 @@
         <v>48</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
-        <v>4800</v>
+        <v>3360</v>
       </c>
       <c r="M46">
         <f t="shared" si="18"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9906156689890515E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -2735,18 +2735,18 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
-        <v>1600</v>
+        <v>1120</v>
       </c>
       <c r="M47">
         <f t="shared" si="16"/>
-        <v>3.0721966205837174E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.635385563296839E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
@@ -2772,10 +2772,10 @@
       </c>
       <c r="M48">
         <f t="shared" si="16"/>
-        <v>0.12288786482334869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.7916488933124791E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>124</v>
       </c>
@@ -2812,10 +2812,10 @@
       </c>
       <c r="M49">
         <f t="shared" ref="M49:M52" si="19">J49/L$3</f>
-        <v>4.1474654377880185E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.2796815014929618E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>127</v>
       </c>
@@ -2852,10 +2852,10 @@
       </c>
       <c r="M50">
         <f t="shared" si="19"/>
-        <v>6.2980030721966201E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9432200578226456E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>130</v>
       </c>
@@ -2892,10 +2892,10 @@
       </c>
       <c r="M51">
         <f t="shared" si="19"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.8437366699843596E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>132</v>
       </c>
@@ -2932,10 +2932,10 @@
       </c>
       <c r="M52">
         <f t="shared" si="19"/>
-        <v>9.2165898617511521E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.8437366699843596E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>134</v>
       </c>
@@ -2957,14 +2957,14 @@
       </c>
       <c r="L53">
         <f>SUM(K54:K63)</f>
-        <v>36800</v>
+        <v>29360</v>
       </c>
       <c r="M53">
         <f t="shared" si="3"/>
-        <v>7.0660522273425494E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7394189298070999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>137</v>
       </c>
@@ -2993,18 +2993,18 @@
         <v>24</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
-        <v>2400</v>
+        <v>1680</v>
       </c>
       <c r="M54">
         <f t="shared" ref="M54:M63" si="20">K54/L$3</f>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9.9530783449452574E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>139</v>
       </c>
@@ -3026,14 +3026,14 @@
       </c>
       <c r="K55">
         <f>SUM(J56:J57)</f>
-        <v>14400</v>
+        <v>10080</v>
       </c>
       <c r="M55">
         <f t="shared" si="20"/>
-        <v>2.7649769585253458E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.9718470069671549E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>142</v>
       </c>
@@ -3062,18 +3062,18 @@
         <v>72</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
-        <v>7200</v>
+        <v>5040</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56:M57" si="21">J56/L$3</f>
-        <v>1.3824884792626729E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9859235034835774E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>144</v>
       </c>
@@ -3102,18 +3102,18 @@
         <v>72</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J57">
         <f t="shared" si="9"/>
-        <v>7200</v>
+        <v>5040</v>
       </c>
       <c r="M57">
         <f t="shared" si="21"/>
-        <v>1.3824884792626729E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.9859235034835774E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>147</v>
       </c>
@@ -3142,18 +3142,18 @@
         <v>80</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="M58">
         <f t="shared" si="20"/>
-        <v>1.5360983102918587E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.3176927816484193E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>150</v>
       </c>
@@ -3179,10 +3179,10 @@
       </c>
       <c r="M59">
         <f t="shared" si="20"/>
-        <v>1.5360983102918587E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.7395611166405989E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>153</v>
       </c>
@@ -3219,10 +3219,10 @@
       </c>
       <c r="M60">
         <f t="shared" ref="M60:M62" si="22">J60/L$3</f>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921798E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>97</v>
       </c>
@@ -3259,10 +3259,10 @@
       </c>
       <c r="M61">
         <f t="shared" si="22"/>
-        <v>6.1443932411674347E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8958244466562397E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>156</v>
       </c>
@@ -3299,10 +3299,10 @@
       </c>
       <c r="M62">
         <f t="shared" si="22"/>
-        <v>4.608294930875576E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4218683349921798E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>158</v>
       </c>
@@ -3339,10 +3339,10 @@
       </c>
       <c r="M63">
         <f t="shared" si="20"/>
-        <v>7.6804915514592934E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3697805583202994E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>160</v>
       </c>
@@ -3364,14 +3364,14 @@
       </c>
       <c r="L64">
         <f>SUM(K65:K69)</f>
-        <v>47200</v>
+        <v>33040</v>
       </c>
       <c r="M64">
         <f t="shared" si="3"/>
-        <v>9.0629800307219663E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.9574387411725673E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>163</v>
       </c>
@@ -3400,18 +3400,18 @@
         <v>200</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M69" si="23">K65/L$3</f>
-        <v>3.840245775729647E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.2942319541210487E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>166</v>
       </c>
@@ -3433,14 +3433,14 @@
       </c>
       <c r="K66">
         <f>SUM(J67:J68)</f>
-        <v>17600</v>
+        <v>12320</v>
       </c>
       <c r="M66">
         <f t="shared" si="23"/>
-        <v>3.3794162826420893E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.2989241196265223E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>169</v>
       </c>
@@ -3469,18 +3469,18 @@
         <v>80</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J67">
         <f t="shared" si="9"/>
-        <v>8000</v>
+        <v>5600</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M68" si="25">J67/L$3</f>
-        <v>1.5360983102918587E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.3176927816484193E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>172</v>
       </c>
@@ -3509,18 +3509,18 @@
         <v>96</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>9600</v>
+        <v>6720</v>
       </c>
       <c r="M68">
         <f t="shared" si="25"/>
-        <v>1.8433179723502304E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.981231337978103E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>175</v>
       </c>
@@ -3549,15 +3549,15 @@
         <v>96</v>
       </c>
       <c r="I69">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K69">
         <f t="shared" ref="K69" si="27">H69*I69</f>
-        <v>9600</v>
+        <v>6720</v>
       </c>
       <c r="M69">
         <f t="shared" si="23"/>
-        <v>1.8433179723502304E-2</v>
+        <v>3.981231337978103E-3</v>
       </c>
     </row>
   </sheetData>
